--- a/sql/dates.xlsx
+++ b/sql/dates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="101">
   <si>
     <t>poetid</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>Oenopas</t>
+  </si>
+  <si>
+    <t>iso_8601</t>
   </si>
 </sst>
 </file>
@@ -857,7 +860,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -867,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -891,6 +894,9 @@
       <c r="C1" s="10" t="s">
         <v>54</v>
       </c>
+      <c r="D1" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6">
@@ -903,7 +909,10 @@
       <c r="C2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="str">
+        <f>CONCATENATE("0",C2,"-01-01")</f>
+        <v>0500-01-01</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -915,7 +924,10 @@
       <c r="C3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="0">CONCATENATE("0",C3,"-01-01")</f>
+        <v>0475-01-01</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
@@ -927,7 +939,10 @@
       <c r="C4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D4"/>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>0450-01-01</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
@@ -939,7 +954,10 @@
       <c r="C5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D5"/>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>0425-01-01</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
@@ -951,7 +969,10 @@
       <c r="C6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D6"/>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>0400-01-01</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
@@ -963,7 +984,10 @@
       <c r="C7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D7"/>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>0425-01-01</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
@@ -975,7 +999,10 @@
       <c r="C8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D8"/>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>0400-01-01</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
@@ -987,7 +1014,10 @@
       <c r="C9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D9"/>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>0500-01-01</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
@@ -999,7 +1029,10 @@
       <c r="C10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D10"/>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>0475-01-01</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
@@ -1011,7 +1044,10 @@
       <c r="C11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D11"/>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>0450-01-01</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
@@ -1023,7 +1059,10 @@
       <c r="C12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D12"/>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>0425-01-01</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
@@ -1035,7 +1074,10 @@
       <c r="C13" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D13"/>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>0400-01-01</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
@@ -1047,7 +1089,10 @@
       <c r="C14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D14"/>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>0500-01-01</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
@@ -1059,7 +1104,10 @@
       <c r="C15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D15"/>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>0475-01-01</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
@@ -1071,7 +1119,10 @@
       <c r="C16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D16"/>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>0450-01-01</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
@@ -1083,7 +1134,10 @@
       <c r="C17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D17"/>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>0500-01-01</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
@@ -1095,7 +1149,10 @@
       <c r="C18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D18"/>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>0475-01-01</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
@@ -1107,7 +1164,10 @@
       <c r="C19" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D19"/>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>0450-01-01</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
@@ -1119,7 +1179,10 @@
       <c r="C20" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D20"/>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>0425-01-01</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
@@ -1131,7 +1194,10 @@
       <c r="C21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D21"/>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>0400-01-01</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
@@ -1143,7 +1209,10 @@
       <c r="C22" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D22"/>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>0425-01-01</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
@@ -1155,7 +1224,10 @@
       <c r="C23" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D23"/>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>0400-01-01</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
@@ -1167,7 +1239,10 @@
       <c r="C24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D24"/>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>0425-01-01</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
@@ -1179,7 +1254,10 @@
       <c r="C25" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D25"/>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>0400-01-01</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
@@ -1191,7 +1269,10 @@
       <c r="C26" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D26"/>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>0375-01-01</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
@@ -1203,7 +1284,10 @@
       <c r="C27" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D27"/>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>0400-01-01</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
@@ -1215,7 +1299,10 @@
       <c r="C28" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D28"/>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>0375-01-01</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
@@ -1227,7 +1314,10 @@
       <c r="C29" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D29"/>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>0425-01-01</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
@@ -1239,7 +1329,10 @@
       <c r="C30" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D30"/>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>0400-01-01</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
@@ -1251,7 +1344,10 @@
       <c r="C31" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D31"/>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>0500-01-01</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
@@ -1263,7 +1359,10 @@
       <c r="C32" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D32"/>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>0475-01-01</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
@@ -1275,7 +1374,10 @@
       <c r="C33" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D33"/>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>0450-01-01</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
@@ -1287,7 +1389,10 @@
       <c r="C34" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D34"/>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>0425-01-01</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
@@ -1299,7 +1404,10 @@
       <c r="C35" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D35"/>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>0400-01-01</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
@@ -1311,7 +1419,10 @@
       <c r="C36" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D36"/>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>0425-01-01</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
@@ -1323,7 +1434,10 @@
       <c r="C37" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D37"/>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>0400-01-01</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
@@ -1335,7 +1449,10 @@
       <c r="C38" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D38"/>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>0375-01-01</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
@@ -1347,7 +1464,10 @@
       <c r="C39" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D39"/>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>0375-01-01</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
@@ -1359,7 +1479,10 @@
       <c r="C40" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D40"/>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>0350-01-01</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
@@ -1371,7 +1494,10 @@
       <c r="C41" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D41"/>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>0325-01-01</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
@@ -1383,7 +1509,10 @@
       <c r="C42" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D42"/>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>0300-01-01</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
@@ -1395,7 +1524,10 @@
       <c r="C43" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D43"/>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>0425-01-01</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
@@ -1407,7 +1539,10 @@
       <c r="C44" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D44"/>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>0400-01-01</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
@@ -1419,7 +1554,10 @@
       <c r="C45" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D45"/>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>0425-01-01</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
@@ -1431,7 +1569,10 @@
       <c r="C46" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D46"/>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>0400-01-01</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
@@ -1443,7 +1584,10 @@
       <c r="C47" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D47"/>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>0400-01-01</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
@@ -1455,7 +1599,10 @@
       <c r="C48" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D48"/>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>0375-01-01</v>
+      </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
@@ -1467,7 +1614,10 @@
       <c r="C49" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D49"/>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>0350-01-01</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
@@ -1479,7 +1629,10 @@
       <c r="C50" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D50"/>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>0325-01-01</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
@@ -1491,7 +1644,10 @@
       <c r="C51" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D51"/>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>0300-01-01</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
@@ -1503,7 +1659,10 @@
       <c r="C52" s="14">
         <v>425</v>
       </c>
-      <c r="D52"/>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>0425-01-01</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="8" t="s">
@@ -1515,7 +1674,10 @@
       <c r="C53" s="14">
         <v>400</v>
       </c>
-      <c r="D53"/>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>0400-01-01</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="8" t="s">
@@ -1527,7 +1689,10 @@
       <c r="C54" s="14">
         <v>375</v>
       </c>
-      <c r="D54"/>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>0375-01-01</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
@@ -1539,7 +1704,10 @@
       <c r="C55" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D55"/>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>0425-01-01</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
@@ -1551,7 +1719,10 @@
       <c r="C56" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D56"/>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>0400-01-01</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
@@ -1563,7 +1734,10 @@
       <c r="C57" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D57"/>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>0375-01-01</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
@@ -1575,7 +1749,10 @@
       <c r="C58" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D58"/>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>0500-01-01</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
@@ -1587,7 +1764,10 @@
       <c r="C59" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D59"/>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>0475-01-01</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
@@ -1599,7 +1779,10 @@
       <c r="C60" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D60"/>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>0450-01-01</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
@@ -1611,7 +1794,10 @@
       <c r="C61" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D61"/>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>0425-01-01</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
@@ -1623,7 +1809,10 @@
       <c r="C62" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D62"/>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>0400-01-01</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="8" t="s">
@@ -1635,7 +1824,10 @@
       <c r="C63" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D63"/>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>0500-01-01</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="8" t="s">
@@ -1647,7 +1839,10 @@
       <c r="C64" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D64"/>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>0475-01-01</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="8" t="s">
@@ -1659,7 +1854,10 @@
       <c r="C65" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D65"/>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>0450-01-01</v>
+      </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="8" t="s">
@@ -1671,7 +1869,10 @@
       <c r="C66" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D66"/>
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>0425-01-01</v>
+      </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="8" t="s">
@@ -1683,7 +1884,10 @@
       <c r="C67" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D67"/>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D130" si="1">CONCATENATE("0",C67,"-01-01")</f>
+        <v>0400-01-01</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="8" t="s">
@@ -1695,7 +1899,10 @@
       <c r="C68" s="14">
         <v>425</v>
       </c>
-      <c r="D68"/>
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>0425-01-01</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="8" t="s">
@@ -1707,7 +1914,10 @@
       <c r="C69" s="14">
         <v>400</v>
       </c>
-      <c r="D69"/>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>0400-01-01</v>
+      </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="8" t="s">
@@ -1719,7 +1929,10 @@
       <c r="C70" s="14">
         <v>375</v>
       </c>
-      <c r="D70"/>
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>0375-01-01</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="8" t="s">
@@ -1731,7 +1944,10 @@
       <c r="C71" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D71"/>
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>0500-01-01</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="8" t="s">
@@ -1743,7 +1959,10 @@
       <c r="C72" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D72"/>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>0475-01-01</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="8" t="s">
@@ -1755,7 +1974,10 @@
       <c r="C73" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D73"/>
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>0450-01-01</v>
+      </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1">
       <c r="A74" s="8" t="s">
@@ -1767,7 +1989,10 @@
       <c r="C74" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D74"/>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>0425-01-01</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="8" t="s">
@@ -1779,7 +2004,10 @@
       <c r="C75" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D75"/>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>0400-01-01</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
@@ -1791,7 +2019,10 @@
       <c r="C76" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D76"/>
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>0500-01-01</v>
+      </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
@@ -1803,7 +2034,10 @@
       <c r="C77" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D77"/>
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>0475-01-01</v>
+      </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
@@ -1815,7 +2049,10 @@
       <c r="C78" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D78"/>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>0450-01-01</v>
+      </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
@@ -1827,7 +2064,10 @@
       <c r="C79" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D79"/>
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>0425-01-01</v>
+      </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
@@ -1839,7 +2079,10 @@
       <c r="C80" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D80"/>
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>0400-01-01</v>
+      </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="8" t="s">
@@ -1851,7 +2094,10 @@
       <c r="C81" s="14">
         <v>425</v>
       </c>
-      <c r="D81"/>
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>0425-01-01</v>
+      </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="8" t="s">
@@ -1863,7 +2109,10 @@
       <c r="C82" s="14">
         <v>400</v>
       </c>
-      <c r="D82"/>
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>0400-01-01</v>
+      </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="8" t="s">
@@ -1875,7 +2124,10 @@
       <c r="C83" s="14">
         <v>375</v>
       </c>
-      <c r="D83"/>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>0375-01-01</v>
+      </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="8" t="s">
@@ -1887,7 +2139,10 @@
       <c r="C84" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D84"/>
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>0500-01-01</v>
+      </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="8" t="s">
@@ -1899,7 +2154,10 @@
       <c r="C85" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D85"/>
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>0475-01-01</v>
+      </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="8" t="s">
@@ -1911,7 +2169,10 @@
       <c r="C86" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D86"/>
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="E86" s="1"/>
       <c r="F86" s="6"/>
     </row>
@@ -1925,7 +2186,10 @@
       <c r="C87" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D87"/>
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E87" s="1"/>
       <c r="F87" s="6"/>
     </row>
@@ -1939,7 +2203,10 @@
       <c r="C88" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D88"/>
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E88" s="1"/>
       <c r="F88" s="6"/>
     </row>
@@ -1953,6 +2220,10 @@
       <c r="C89" s="14">
         <v>425</v>
       </c>
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="F89" s="6"/>
     </row>
     <row r="90" spans="1:6">
@@ -1965,6 +2236,10 @@
       <c r="C90" s="14">
         <v>400</v>
       </c>
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="F90" s="6"/>
     </row>
     <row r="91" spans="1:6">
@@ -1977,6 +2252,10 @@
       <c r="C91" s="14">
         <v>375</v>
       </c>
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>0375-01-01</v>
+      </c>
       <c r="F91" s="6"/>
     </row>
     <row r="92" spans="1:6">
@@ -1989,6 +2268,10 @@
       <c r="C92" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="F92" s="6"/>
     </row>
     <row r="93" spans="1:6">
@@ -2001,6 +2284,10 @@
       <c r="C93" s="11" t="s">
         <v>47</v>
       </c>
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="F93" s="6"/>
     </row>
     <row r="94" spans="1:6">
@@ -2013,6 +2300,10 @@
       <c r="C94" s="11" t="s">
         <v>49</v>
       </c>
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="F94" s="6"/>
     </row>
     <row r="95" spans="1:6">
@@ -2025,6 +2316,10 @@
       <c r="C95" s="14">
         <v>475</v>
       </c>
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>0475-01-01</v>
+      </c>
       <c r="F95" s="6"/>
     </row>
     <row r="96" spans="1:6">
@@ -2037,6 +2332,10 @@
       <c r="C96" s="14">
         <v>450</v>
       </c>
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="F96" s="6"/>
     </row>
     <row r="97" spans="1:6">
@@ -2049,6 +2348,10 @@
       <c r="C97" s="14">
         <v>425</v>
       </c>
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6">
@@ -2061,6 +2364,10 @@
       <c r="C98" s="14">
         <v>400</v>
       </c>
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="F98" s="6"/>
     </row>
     <row r="99" spans="1:6">
@@ -2073,6 +2380,10 @@
       <c r="C99" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="F99" s="6"/>
     </row>
     <row r="100" spans="1:6">
@@ -2085,6 +2396,10 @@
       <c r="C100" s="11" t="s">
         <v>47</v>
       </c>
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="F100" s="6"/>
     </row>
     <row r="101" spans="1:6">
@@ -2097,6 +2412,10 @@
       <c r="C101" s="11" t="s">
         <v>49</v>
       </c>
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="F101" s="6"/>
     </row>
     <row r="102" spans="1:6">
@@ -2109,6 +2428,10 @@
       <c r="C102" s="11" t="s">
         <v>44</v>
       </c>
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>0500-01-01</v>
+      </c>
       <c r="F102" s="6"/>
     </row>
     <row r="103" spans="1:6">
@@ -2121,6 +2444,10 @@
       <c r="C103" s="12" t="s">
         <v>45</v>
       </c>
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v>0475-01-01</v>
+      </c>
       <c r="F103" s="6"/>
     </row>
     <row r="104" spans="1:6">
@@ -2133,6 +2460,10 @@
       <c r="C104" s="12" t="s">
         <v>46</v>
       </c>
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="F104" s="6"/>
     </row>
     <row r="105" spans="1:6">
@@ -2145,6 +2476,10 @@
       <c r="C105" s="12" t="s">
         <v>47</v>
       </c>
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="F105" s="6"/>
     </row>
     <row r="106" spans="1:6">
@@ -2157,6 +2492,10 @@
       <c r="C106" s="12" t="s">
         <v>49</v>
       </c>
+      <c r="D106" t="str">
+        <f t="shared" si="1"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="F106" s="6"/>
     </row>
     <row r="107" spans="1:6">
@@ -2169,6 +2508,10 @@
       <c r="C107" s="14">
         <v>425</v>
       </c>
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="F107" s="6"/>
     </row>
     <row r="108" spans="1:6">
@@ -2181,6 +2524,10 @@
       <c r="C108" s="14">
         <v>400</v>
       </c>
+      <c r="D108" t="str">
+        <f t="shared" si="1"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="F108" s="6"/>
     </row>
     <row r="109" spans="1:6">
@@ -2193,6 +2540,10 @@
       <c r="C109" s="14">
         <v>375</v>
       </c>
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v>0375-01-01</v>
+      </c>
       <c r="F109" s="6"/>
     </row>
     <row r="110" spans="1:6">
@@ -2205,6 +2556,10 @@
       <c r="C110" s="10" t="s">
         <v>47</v>
       </c>
+      <c r="D110" t="str">
+        <f t="shared" si="1"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="F110" s="6"/>
     </row>
     <row r="111" spans="1:6">
@@ -2217,6 +2572,10 @@
       <c r="C111" s="10" t="s">
         <v>49</v>
       </c>
+      <c r="D111" t="str">
+        <f t="shared" si="1"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="F111" s="6"/>
     </row>
     <row r="112" spans="1:6">
@@ -2229,6 +2588,10 @@
       <c r="C112" s="10" t="s">
         <v>50</v>
       </c>
+      <c r="D112" t="str">
+        <f t="shared" si="1"/>
+        <v>0375-01-01</v>
+      </c>
       <c r="F112" s="6"/>
     </row>
     <row r="113" spans="1:6">
@@ -2241,6 +2604,10 @@
       <c r="C113" s="11" t="s">
         <v>44</v>
       </c>
+      <c r="D113" t="str">
+        <f t="shared" si="1"/>
+        <v>0500-01-01</v>
+      </c>
       <c r="F113" s="6"/>
     </row>
     <row r="114" spans="1:6">
@@ -2253,6 +2620,10 @@
       <c r="C114" s="12" t="s">
         <v>45</v>
       </c>
+      <c r="D114" t="str">
+        <f t="shared" si="1"/>
+        <v>0475-01-01</v>
+      </c>
       <c r="F114" s="6"/>
     </row>
     <row r="115" spans="1:6">
@@ -2265,6 +2636,10 @@
       <c r="C115" s="12" t="s">
         <v>46</v>
       </c>
+      <c r="D115" t="str">
+        <f t="shared" si="1"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="F115" s="6"/>
     </row>
     <row r="116" spans="1:6">
@@ -2277,6 +2652,10 @@
       <c r="C116" s="12" t="s">
         <v>47</v>
       </c>
+      <c r="D116" t="str">
+        <f t="shared" si="1"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="F116" s="6"/>
     </row>
     <row r="117" spans="1:6">
@@ -2289,6 +2668,10 @@
       <c r="C117" s="12" t="s">
         <v>49</v>
       </c>
+      <c r="D117" t="str">
+        <f t="shared" si="1"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="F117" s="6"/>
     </row>
     <row r="118" spans="1:6">
@@ -2301,6 +2684,10 @@
       <c r="C118" s="10" t="s">
         <v>46</v>
       </c>
+      <c r="D118" t="str">
+        <f t="shared" si="1"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="F118" s="6"/>
     </row>
     <row r="119" spans="1:6">
@@ -2313,6 +2700,10 @@
       <c r="C119" s="10" t="s">
         <v>47</v>
       </c>
+      <c r="D119" t="str">
+        <f t="shared" si="1"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="F119" s="6"/>
     </row>
     <row r="120" spans="1:6">
@@ -2325,6 +2716,10 @@
       <c r="C120" s="10" t="s">
         <v>49</v>
       </c>
+      <c r="D120" t="str">
+        <f t="shared" si="1"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="F120" s="6"/>
     </row>
     <row r="121" spans="1:6">
@@ -2337,6 +2732,10 @@
       <c r="C121" s="14">
         <v>450</v>
       </c>
+      <c r="D121" t="str">
+        <f t="shared" si="1"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="F121" s="6"/>
     </row>
     <row r="122" spans="1:6">
@@ -2349,6 +2748,10 @@
       <c r="C122" s="14">
         <v>425</v>
       </c>
+      <c r="D122" t="str">
+        <f t="shared" si="1"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="F122" s="6"/>
     </row>
     <row r="123" spans="1:6">
@@ -2361,6 +2764,10 @@
       <c r="C123" s="14">
         <v>400</v>
       </c>
+      <c r="D123" t="str">
+        <f t="shared" si="1"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="F123" s="6"/>
     </row>
     <row r="124" spans="1:6">
@@ -2373,6 +2780,10 @@
       <c r="C124" s="11" t="s">
         <v>44</v>
       </c>
+      <c r="D124" t="str">
+        <f t="shared" si="1"/>
+        <v>0500-01-01</v>
+      </c>
       <c r="F124" s="6"/>
     </row>
     <row r="125" spans="1:6">
@@ -2385,6 +2796,10 @@
       <c r="C125" s="12" t="s">
         <v>45</v>
       </c>
+      <c r="D125" t="str">
+        <f t="shared" si="1"/>
+        <v>0475-01-01</v>
+      </c>
       <c r="F125" s="6"/>
     </row>
     <row r="126" spans="1:6">
@@ -2397,6 +2812,10 @@
       <c r="C126" s="12" t="s">
         <v>46</v>
       </c>
+      <c r="D126" t="str">
+        <f t="shared" si="1"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="F126" s="6"/>
     </row>
     <row r="127" spans="1:6">
@@ -2409,6 +2828,10 @@
       <c r="C127" s="12" t="s">
         <v>47</v>
       </c>
+      <c r="D127" t="str">
+        <f t="shared" si="1"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="F127" s="6"/>
     </row>
     <row r="128" spans="1:6">
@@ -2421,6 +2844,10 @@
       <c r="C128" s="12" t="s">
         <v>49</v>
       </c>
+      <c r="D128" t="str">
+        <f t="shared" si="1"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="F128" s="6"/>
     </row>
     <row r="129" spans="1:6">
@@ -2433,6 +2860,10 @@
       <c r="C129" s="14">
         <v>475</v>
       </c>
+      <c r="D129" t="str">
+        <f t="shared" si="1"/>
+        <v>0475-01-01</v>
+      </c>
       <c r="F129" s="6"/>
     </row>
     <row r="130" spans="1:6">
@@ -2445,6 +2876,10 @@
       <c r="C130" s="14">
         <v>450</v>
       </c>
+      <c r="D130" t="str">
+        <f t="shared" si="1"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="F130" s="6"/>
     </row>
     <row r="131" spans="1:6">
@@ -2457,6 +2892,10 @@
       <c r="C131" s="14">
         <v>425</v>
       </c>
+      <c r="D131" t="str">
+        <f t="shared" ref="D131:D194" si="2">CONCATENATE("0",C131,"-01-01")</f>
+        <v>0425-01-01</v>
+      </c>
       <c r="F131" s="6"/>
     </row>
     <row r="132" spans="1:6">
@@ -2469,6 +2908,10 @@
       <c r="C132" s="14">
         <v>450</v>
       </c>
+      <c r="D132" t="str">
+        <f t="shared" si="2"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="F132" s="6"/>
     </row>
     <row r="133" spans="1:6">
@@ -2481,6 +2924,10 @@
       <c r="C133" s="14">
         <v>425</v>
       </c>
+      <c r="D133" t="str">
+        <f t="shared" si="2"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="F133" s="6"/>
     </row>
     <row r="134" spans="1:6">
@@ -2493,6 +2940,10 @@
       <c r="C134" s="14">
         <v>425</v>
       </c>
+      <c r="D134" t="str">
+        <f t="shared" si="2"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="F134" s="6"/>
     </row>
     <row r="135" spans="1:6">
@@ -2505,6 +2956,10 @@
       <c r="C135" s="14">
         <v>400</v>
       </c>
+      <c r="D135" t="str">
+        <f t="shared" si="2"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="F135" s="6"/>
     </row>
     <row r="136" spans="1:6">
@@ -2517,6 +2972,10 @@
       <c r="C136" s="14">
         <v>375</v>
       </c>
+      <c r="D136" t="str">
+        <f t="shared" si="2"/>
+        <v>0375-01-01</v>
+      </c>
       <c r="F136" s="6"/>
     </row>
     <row r="137" spans="1:6">
@@ -2529,6 +2988,10 @@
       <c r="C137" s="11" t="s">
         <v>44</v>
       </c>
+      <c r="D137" t="str">
+        <f t="shared" si="2"/>
+        <v>0500-01-01</v>
+      </c>
       <c r="F137" s="6"/>
     </row>
     <row r="138" spans="1:6">
@@ -2541,6 +3004,10 @@
       <c r="C138" s="12" t="s">
         <v>45</v>
       </c>
+      <c r="D138" t="str">
+        <f t="shared" si="2"/>
+        <v>0475-01-01</v>
+      </c>
       <c r="F138" s="6"/>
     </row>
     <row r="139" spans="1:6">
@@ -2553,7 +3020,10 @@
       <c r="C139" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D139" s="8"/>
+      <c r="D139" t="str">
+        <f t="shared" si="2"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="E139" s="8"/>
     </row>
     <row r="140" spans="1:6">
@@ -2566,7 +3036,10 @@
       <c r="C140" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D140" s="8"/>
+      <c r="D140" t="str">
+        <f t="shared" si="2"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E140" s="8"/>
     </row>
     <row r="141" spans="1:6">
@@ -2579,7 +3052,10 @@
       <c r="C141" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D141" s="8"/>
+      <c r="D141" t="str">
+        <f t="shared" si="2"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E141" s="8"/>
     </row>
     <row r="142" spans="1:6">
@@ -2592,7 +3068,10 @@
       <c r="C142" s="14">
         <v>425</v>
       </c>
-      <c r="D142" s="8"/>
+      <c r="D142" t="str">
+        <f t="shared" si="2"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E142" s="8"/>
     </row>
     <row r="143" spans="1:6">
@@ -2605,7 +3084,10 @@
       <c r="C143" s="14">
         <v>400</v>
       </c>
-      <c r="D143" s="8"/>
+      <c r="D143" t="str">
+        <f t="shared" si="2"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E143" s="8"/>
     </row>
     <row r="144" spans="1:6">
@@ -2618,7 +3100,10 @@
       <c r="C144" s="14">
         <v>375</v>
       </c>
-      <c r="D144" s="8"/>
+      <c r="D144" t="str">
+        <f t="shared" si="2"/>
+        <v>0375-01-01</v>
+      </c>
       <c r="E144" s="8"/>
     </row>
     <row r="145" spans="1:5">
@@ -2631,7 +3116,10 @@
       <c r="C145" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D145" s="8"/>
+      <c r="D145" t="str">
+        <f t="shared" si="2"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E145" s="8"/>
     </row>
     <row r="146" spans="1:5">
@@ -2644,7 +3132,10 @@
       <c r="C146" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D146" s="8"/>
+      <c r="D146" t="str">
+        <f t="shared" si="2"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E146" s="8"/>
     </row>
     <row r="147" spans="1:5">
@@ -2657,7 +3148,10 @@
       <c r="C147" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D147" s="8"/>
+      <c r="D147" t="str">
+        <f t="shared" si="2"/>
+        <v>0500-01-01</v>
+      </c>
       <c r="E147" s="8"/>
     </row>
     <row r="148" spans="1:5">
@@ -2670,7 +3164,10 @@
       <c r="C148" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D148" s="8"/>
+      <c r="D148" t="str">
+        <f t="shared" si="2"/>
+        <v>0475-01-01</v>
+      </c>
       <c r="E148" s="8"/>
     </row>
     <row r="149" spans="1:5">
@@ -2683,7 +3180,10 @@
       <c r="C149" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D149" s="8"/>
+      <c r="D149" t="str">
+        <f t="shared" si="2"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="E149" s="8"/>
     </row>
     <row r="150" spans="1:5">
@@ -2696,7 +3196,10 @@
       <c r="C150" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D150" s="8"/>
+      <c r="D150" t="str">
+        <f t="shared" si="2"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E150" s="8"/>
     </row>
     <row r="151" spans="1:5">
@@ -2709,7 +3212,10 @@
       <c r="C151" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D151" s="8"/>
+      <c r="D151" t="str">
+        <f t="shared" si="2"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E151" s="8"/>
     </row>
     <row r="152" spans="1:5">
@@ -2722,7 +3228,10 @@
       <c r="C152" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D152" s="8"/>
+      <c r="D152" t="str">
+        <f t="shared" si="2"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E152" s="8"/>
     </row>
     <row r="153" spans="1:5">
@@ -2735,7 +3244,10 @@
       <c r="C153" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D153" s="8"/>
+      <c r="D153" t="str">
+        <f t="shared" si="2"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E153" s="8"/>
     </row>
     <row r="154" spans="1:5">
@@ -2748,7 +3260,10 @@
       <c r="C154" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D154" s="8"/>
+      <c r="D154" t="str">
+        <f t="shared" si="2"/>
+        <v>0375-01-01</v>
+      </c>
       <c r="E154" s="8"/>
     </row>
     <row r="155" spans="1:5">
@@ -2761,7 +3276,10 @@
       <c r="C155" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D155" s="8"/>
+      <c r="D155" t="str">
+        <f t="shared" si="2"/>
+        <v>0500-01-01</v>
+      </c>
       <c r="E155" s="8"/>
     </row>
     <row r="156" spans="1:5">
@@ -2774,7 +3292,10 @@
       <c r="C156" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D156" s="8"/>
+      <c r="D156" t="str">
+        <f t="shared" si="2"/>
+        <v>0475-01-01</v>
+      </c>
       <c r="E156" s="8"/>
     </row>
     <row r="157" spans="1:5">
@@ -2787,7 +3308,10 @@
       <c r="C157" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D157" s="8"/>
+      <c r="D157" t="str">
+        <f t="shared" si="2"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="E157" s="8"/>
     </row>
     <row r="158" spans="1:5">
@@ -2800,7 +3324,10 @@
       <c r="C158" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D158" s="8"/>
+      <c r="D158" t="str">
+        <f t="shared" si="2"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E158" s="8"/>
     </row>
     <row r="159" spans="1:5">
@@ -2813,7 +3340,10 @@
       <c r="C159" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D159" s="8"/>
+      <c r="D159" t="str">
+        <f t="shared" si="2"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E159" s="8"/>
     </row>
     <row r="160" spans="1:5">
@@ -2826,7 +3356,10 @@
       <c r="C160" s="14">
         <v>425</v>
       </c>
-      <c r="D160" s="8"/>
+      <c r="D160" t="str">
+        <f t="shared" si="2"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E160" s="8"/>
     </row>
     <row r="161" spans="1:5">
@@ -2839,7 +3372,10 @@
       <c r="C161" s="14">
         <v>400</v>
       </c>
-      <c r="D161" s="8"/>
+      <c r="D161" t="str">
+        <f t="shared" si="2"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E161" s="8"/>
     </row>
     <row r="162" spans="1:5">
@@ -2852,7 +3388,10 @@
       <c r="C162" s="14">
         <v>375</v>
       </c>
-      <c r="D162" s="8"/>
+      <c r="D162" t="str">
+        <f t="shared" si="2"/>
+        <v>0375-01-01</v>
+      </c>
       <c r="E162" s="8"/>
     </row>
     <row r="163" spans="1:5">
@@ -2865,7 +3404,10 @@
       <c r="C163" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D163" s="8"/>
+      <c r="D163" t="str">
+        <f t="shared" si="2"/>
+        <v>0475-01-01</v>
+      </c>
       <c r="E163" s="8"/>
     </row>
     <row r="164" spans="1:5">
@@ -2878,7 +3420,10 @@
       <c r="C164" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D164" s="8"/>
+      <c r="D164" t="str">
+        <f t="shared" si="2"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="E164" s="8"/>
     </row>
     <row r="165" spans="1:5">
@@ -2891,7 +3436,10 @@
       <c r="C165" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D165" s="8"/>
+      <c r="D165" t="str">
+        <f t="shared" si="2"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E165" s="8"/>
     </row>
     <row r="166" spans="1:5">
@@ -2904,7 +3452,10 @@
       <c r="C166" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D166" s="8"/>
+      <c r="D166" t="str">
+        <f t="shared" si="2"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E166" s="8"/>
     </row>
     <row r="167" spans="1:5">
@@ -2917,7 +3468,10 @@
       <c r="C167" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D167" s="8"/>
+      <c r="D167" t="str">
+        <f t="shared" si="2"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E167" s="8"/>
     </row>
     <row r="168" spans="1:5">
@@ -2930,7 +3484,10 @@
       <c r="C168" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D168" s="8"/>
+      <c r="D168" t="str">
+        <f t="shared" si="2"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="E168" s="8"/>
     </row>
     <row r="169" spans="1:5">
@@ -2943,7 +3500,10 @@
       <c r="C169" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D169" s="8"/>
+      <c r="D169" t="str">
+        <f t="shared" si="2"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E169" s="8"/>
     </row>
     <row r="170" spans="1:5">
@@ -2956,7 +3516,10 @@
       <c r="C170" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D170" s="8"/>
+      <c r="D170" t="str">
+        <f t="shared" si="2"/>
+        <v>0500-01-01</v>
+      </c>
       <c r="E170" s="8"/>
     </row>
     <row r="171" spans="1:5">
@@ -2969,7 +3532,10 @@
       <c r="C171" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D171" s="8"/>
+      <c r="D171" t="str">
+        <f t="shared" si="2"/>
+        <v>0475-01-01</v>
+      </c>
       <c r="E171" s="8"/>
     </row>
     <row r="172" spans="1:5">
@@ -2982,7 +3548,10 @@
       <c r="C172" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D172" s="8"/>
+      <c r="D172" t="str">
+        <f t="shared" si="2"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="E172" s="8"/>
     </row>
     <row r="173" spans="1:5">
@@ -2995,7 +3564,10 @@
       <c r="C173" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D173" s="8"/>
+      <c r="D173" t="str">
+        <f t="shared" si="2"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E173" s="8"/>
     </row>
     <row r="174" spans="1:5">
@@ -3008,7 +3580,10 @@
       <c r="C174" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D174" s="8"/>
+      <c r="D174" t="str">
+        <f t="shared" si="2"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E174" s="8"/>
     </row>
     <row r="175" spans="1:5">
@@ -3021,7 +3596,10 @@
       <c r="C175" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D175" s="8"/>
+      <c r="D175" t="str">
+        <f t="shared" si="2"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E175" s="8"/>
     </row>
     <row r="176" spans="1:5">
@@ -3034,7 +3612,10 @@
       <c r="C176" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D176" s="8"/>
+      <c r="D176" t="str">
+        <f t="shared" si="2"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E176" s="8"/>
     </row>
     <row r="177" spans="1:5">
@@ -3047,7 +3628,10 @@
       <c r="C177" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D177" s="8"/>
+      <c r="D177" t="str">
+        <f t="shared" si="2"/>
+        <v>0500-01-01</v>
+      </c>
       <c r="E177" s="8"/>
     </row>
     <row r="178" spans="1:5">
@@ -3060,7 +3644,10 @@
       <c r="C178" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D178" s="8"/>
+      <c r="D178" t="str">
+        <f t="shared" si="2"/>
+        <v>0475-01-01</v>
+      </c>
       <c r="E178" s="8"/>
     </row>
     <row r="179" spans="1:5">
@@ -3073,7 +3660,10 @@
       <c r="C179" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D179" s="8"/>
+      <c r="D179" t="str">
+        <f t="shared" si="2"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="E179" s="8"/>
     </row>
     <row r="180" spans="1:5">
@@ -3086,7 +3676,10 @@
       <c r="C180" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D180" s="8"/>
+      <c r="D180" t="str">
+        <f t="shared" si="2"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E180" s="8"/>
     </row>
     <row r="181" spans="1:5">
@@ -3099,7 +3692,10 @@
       <c r="C181" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D181" s="8"/>
+      <c r="D181" t="str">
+        <f t="shared" si="2"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E181" s="8"/>
     </row>
     <row r="182" spans="1:5">
@@ -3112,7 +3708,10 @@
       <c r="C182" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D182" s="8"/>
+      <c r="D182" t="str">
+        <f t="shared" si="2"/>
+        <v>0525-01-01</v>
+      </c>
       <c r="E182" s="8"/>
     </row>
     <row r="183" spans="1:5">
@@ -3125,7 +3724,10 @@
       <c r="C183" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D183" s="8"/>
+      <c r="D183" t="str">
+        <f t="shared" si="2"/>
+        <v>0500-01-01</v>
+      </c>
       <c r="E183" s="8"/>
     </row>
     <row r="184" spans="1:5">
@@ -3138,7 +3740,10 @@
       <c r="C184" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D184" s="8"/>
+      <c r="D184" t="str">
+        <f t="shared" si="2"/>
+        <v>0475-01-01</v>
+      </c>
       <c r="E184" s="8"/>
     </row>
     <row r="185" spans="1:5">
@@ -3151,7 +3756,10 @@
       <c r="C185" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D185" s="8"/>
+      <c r="D185" t="str">
+        <f t="shared" si="2"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="E185" s="8"/>
     </row>
     <row r="186" spans="1:5">
@@ -3164,7 +3772,10 @@
       <c r="C186" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D186" s="8"/>
+      <c r="D186" t="str">
+        <f t="shared" si="2"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E186" s="8"/>
     </row>
     <row r="187" spans="1:5">
@@ -3177,7 +3788,10 @@
       <c r="C187" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D187" s="8"/>
+      <c r="D187" t="str">
+        <f t="shared" si="2"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="E187" s="8"/>
     </row>
     <row r="188" spans="1:5">
@@ -3190,7 +3804,10 @@
       <c r="C188" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D188" s="8"/>
+      <c r="D188" t="str">
+        <f t="shared" si="2"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E188" s="8"/>
     </row>
     <row r="189" spans="1:5">
@@ -3203,7 +3820,10 @@
       <c r="C189" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D189" s="8"/>
+      <c r="D189" t="str">
+        <f t="shared" si="2"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E189" s="8"/>
     </row>
     <row r="190" spans="1:5">
@@ -3216,7 +3836,10 @@
       <c r="C190" s="14">
         <v>450</v>
       </c>
-      <c r="D190" s="8"/>
+      <c r="D190" t="str">
+        <f t="shared" si="2"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="E190" s="8"/>
     </row>
     <row r="191" spans="1:5">
@@ -3229,7 +3852,10 @@
       <c r="C191" s="14">
         <v>425</v>
       </c>
-      <c r="D191" s="8"/>
+      <c r="D191" t="str">
+        <f t="shared" si="2"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E191" s="8"/>
     </row>
     <row r="192" spans="1:5">
@@ -3242,7 +3868,10 @@
       <c r="C192" s="14">
         <v>400</v>
       </c>
-      <c r="D192" s="8"/>
+      <c r="D192" t="str">
+        <f t="shared" si="2"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E192" s="8"/>
     </row>
     <row r="193" spans="1:5">
@@ -3255,7 +3884,10 @@
       <c r="C193" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D193" s="8"/>
+      <c r="D193" t="str">
+        <f t="shared" si="2"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="E193" s="8"/>
     </row>
     <row r="194" spans="1:5">
@@ -3268,7 +3900,10 @@
       <c r="C194" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D194" s="8"/>
+      <c r="D194" t="str">
+        <f t="shared" si="2"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E194" s="8"/>
     </row>
     <row r="195" spans="1:5">
@@ -3281,7 +3916,10 @@
       <c r="C195" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D195" s="8"/>
+      <c r="D195" t="str">
+        <f t="shared" ref="D195:D258" si="3">CONCATENATE("0",C195,"-01-01")</f>
+        <v>0400-01-01</v>
+      </c>
       <c r="E195" s="8"/>
     </row>
     <row r="196" spans="1:5">
@@ -3294,7 +3932,10 @@
       <c r="C196" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D196" s="8"/>
+      <c r="D196" t="str">
+        <f t="shared" si="3"/>
+        <v>0500-01-01</v>
+      </c>
       <c r="E196" s="8"/>
     </row>
     <row r="197" spans="1:5">
@@ -3307,7 +3948,10 @@
       <c r="C197" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D197" s="8"/>
+      <c r="D197" t="str">
+        <f t="shared" si="3"/>
+        <v>0475-01-01</v>
+      </c>
       <c r="E197" s="8"/>
     </row>
     <row r="198" spans="1:5">
@@ -3320,7 +3964,10 @@
       <c r="C198" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D198" s="8"/>
+      <c r="D198" t="str">
+        <f t="shared" si="3"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="E198" s="8"/>
     </row>
     <row r="199" spans="1:5">
@@ -3333,7 +3980,10 @@
       <c r="C199" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D199" s="8"/>
+      <c r="D199" t="str">
+        <f t="shared" si="3"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E199" s="8"/>
     </row>
     <row r="200" spans="1:5">
@@ -3346,7 +3996,10 @@
       <c r="C200" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D200" s="8"/>
+      <c r="D200" t="str">
+        <f t="shared" si="3"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E200" s="8"/>
     </row>
     <row r="201" spans="1:5">
@@ -3359,7 +4012,10 @@
       <c r="C201" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D201" s="8"/>
+      <c r="D201" t="str">
+        <f t="shared" si="3"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E201" s="8"/>
     </row>
     <row r="202" spans="1:5">
@@ -3372,7 +4028,10 @@
       <c r="C202" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D202" s="8"/>
+      <c r="D202" t="str">
+        <f t="shared" si="3"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E202" s="8"/>
     </row>
     <row r="203" spans="1:5">
@@ -3385,7 +4044,10 @@
       <c r="C203" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D203" s="8"/>
+      <c r="D203" t="str">
+        <f t="shared" si="3"/>
+        <v>0375-01-01</v>
+      </c>
       <c r="E203" s="8"/>
     </row>
     <row r="204" spans="1:5">
@@ -3398,7 +4060,10 @@
       <c r="C204" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D204" s="8"/>
+      <c r="D204" t="str">
+        <f t="shared" si="3"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E204" s="8"/>
     </row>
     <row r="205" spans="1:5">
@@ -3411,7 +4076,10 @@
       <c r="C205" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D205" s="8"/>
+      <c r="D205" t="str">
+        <f t="shared" si="3"/>
+        <v>0375-01-01</v>
+      </c>
       <c r="E205" s="8"/>
     </row>
     <row r="206" spans="1:5">
@@ -3424,7 +4092,10 @@
       <c r="C206" s="14">
         <v>425</v>
       </c>
-      <c r="D206" s="8"/>
+      <c r="D206" t="str">
+        <f t="shared" si="3"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E206" s="8"/>
     </row>
     <row r="207" spans="1:5">
@@ -3437,7 +4108,10 @@
       <c r="C207" s="14">
         <v>400</v>
       </c>
-      <c r="D207" s="8"/>
+      <c r="D207" t="str">
+        <f t="shared" si="3"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E207" s="8"/>
     </row>
     <row r="208" spans="1:5">
@@ -3450,7 +4124,10 @@
       <c r="C208" s="14">
         <v>375</v>
       </c>
-      <c r="D208" s="8"/>
+      <c r="D208" t="str">
+        <f t="shared" si="3"/>
+        <v>0375-01-01</v>
+      </c>
       <c r="E208" s="8"/>
     </row>
     <row r="209" spans="1:5">
@@ -3463,7 +4140,10 @@
       <c r="C209" s="15">
         <v>425</v>
       </c>
-      <c r="D209" s="8"/>
+      <c r="D209" t="str">
+        <f t="shared" si="3"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E209" s="8"/>
     </row>
     <row r="210" spans="1:5">
@@ -3476,7 +4156,10 @@
       <c r="C210" s="15">
         <v>400</v>
       </c>
-      <c r="D210" s="8"/>
+      <c r="D210" t="str">
+        <f t="shared" si="3"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E210" s="8"/>
     </row>
     <row r="211" spans="1:5">
@@ -3489,7 +4172,10 @@
       <c r="C211" s="15">
         <v>375</v>
       </c>
-      <c r="D211" s="8"/>
+      <c r="D211" t="str">
+        <f t="shared" si="3"/>
+        <v>0375-01-01</v>
+      </c>
       <c r="E211" s="8"/>
     </row>
     <row r="212" spans="1:5">
@@ -3502,7 +4188,10 @@
       <c r="C212" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D212" s="8"/>
+      <c r="D212" t="str">
+        <f t="shared" si="3"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="E212" s="8"/>
     </row>
     <row r="213" spans="1:5">
@@ -3515,7 +4204,10 @@
       <c r="C213" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D213" s="8"/>
+      <c r="D213" t="str">
+        <f t="shared" si="3"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E213" s="8"/>
     </row>
     <row r="214" spans="1:5">
@@ -3528,7 +4220,10 @@
       <c r="C214" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D214" s="8"/>
+      <c r="D214" t="str">
+        <f t="shared" si="3"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E214" s="8"/>
     </row>
     <row r="215" spans="1:5">
@@ -3541,7 +4236,10 @@
       <c r="C215" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D215" s="8"/>
+      <c r="D215" t="str">
+        <f t="shared" si="3"/>
+        <v>0500-01-01</v>
+      </c>
       <c r="E215" s="8"/>
     </row>
     <row r="216" spans="1:5">
@@ -3554,7 +4252,10 @@
       <c r="C216" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D216" s="8"/>
+      <c r="D216" t="str">
+        <f t="shared" si="3"/>
+        <v>0475-01-01</v>
+      </c>
       <c r="E216" s="8"/>
     </row>
     <row r="217" spans="1:5">
@@ -3567,7 +4268,10 @@
       <c r="C217" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D217" s="8"/>
+      <c r="D217" t="str">
+        <f t="shared" si="3"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="E217" s="8"/>
     </row>
     <row r="218" spans="1:5">
@@ -3580,7 +4284,10 @@
       <c r="C218" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D218" s="8"/>
+      <c r="D218" t="str">
+        <f t="shared" si="3"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E218" s="8"/>
     </row>
     <row r="219" spans="1:5">
@@ -3593,7 +4300,10 @@
       <c r="C219" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D219" s="8"/>
+      <c r="D219" t="str">
+        <f t="shared" si="3"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E219" s="8"/>
     </row>
     <row r="220" spans="1:5">
@@ -3606,7 +4316,10 @@
       <c r="C220" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D220" s="8"/>
+      <c r="D220" t="str">
+        <f t="shared" si="3"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E220" s="8"/>
     </row>
     <row r="221" spans="1:5">
@@ -3619,7 +4332,10 @@
       <c r="C221" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D221" s="8"/>
+      <c r="D221" t="str">
+        <f t="shared" si="3"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E221" s="8"/>
     </row>
     <row r="222" spans="1:5">
@@ -3632,7 +4348,10 @@
       <c r="C222" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D222" s="8"/>
+      <c r="D222" t="str">
+        <f t="shared" si="3"/>
+        <v>0375-01-01</v>
+      </c>
       <c r="E222" s="8"/>
     </row>
     <row r="223" spans="1:5">
@@ -3645,7 +4364,10 @@
       <c r="C223" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D223" s="8"/>
+      <c r="D223" t="str">
+        <f t="shared" si="3"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E223" s="8"/>
     </row>
     <row r="224" spans="1:5">
@@ -3658,7 +4380,10 @@
       <c r="C224" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D224" s="8"/>
+      <c r="D224" t="str">
+        <f t="shared" si="3"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E224" s="8"/>
     </row>
     <row r="225" spans="1:5">
@@ -3671,7 +4396,10 @@
       <c r="C225" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D225" s="8"/>
+      <c r="D225" t="str">
+        <f t="shared" si="3"/>
+        <v>0375-01-01</v>
+      </c>
       <c r="E225" s="8"/>
     </row>
     <row r="226" spans="1:5">
@@ -3684,7 +4412,10 @@
       <c r="C226" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D226" s="8"/>
+      <c r="D226" t="str">
+        <f t="shared" si="3"/>
+        <v>0500-01-01</v>
+      </c>
       <c r="E226" s="8"/>
     </row>
     <row r="227" spans="1:5">
@@ -3697,7 +4428,10 @@
       <c r="C227" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D227" s="8"/>
+      <c r="D227" t="str">
+        <f t="shared" si="3"/>
+        <v>0475-01-01</v>
+      </c>
       <c r="E227" s="8"/>
     </row>
     <row r="228" spans="1:5">
@@ -3710,7 +4444,10 @@
       <c r="C228" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D228" s="8"/>
+      <c r="D228" t="str">
+        <f t="shared" si="3"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="E228" s="8"/>
     </row>
     <row r="229" spans="1:5">
@@ -3723,7 +4460,10 @@
       <c r="C229" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D229" s="8"/>
+      <c r="D229" t="str">
+        <f t="shared" si="3"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E229" s="8"/>
     </row>
     <row r="230" spans="1:5">
@@ -3736,7 +4476,10 @@
       <c r="C230" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D230" s="8"/>
+      <c r="D230" t="str">
+        <f t="shared" si="3"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E230" s="8"/>
     </row>
     <row r="231" spans="1:5">
@@ -3749,7 +4492,10 @@
       <c r="C231" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D231" s="8"/>
+      <c r="D231" t="str">
+        <f t="shared" si="3"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="E231" s="8"/>
     </row>
     <row r="232" spans="1:5">
@@ -3762,7 +4508,10 @@
       <c r="C232" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D232" s="8"/>
+      <c r="D232" t="str">
+        <f t="shared" si="3"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E232" s="8"/>
     </row>
     <row r="233" spans="1:5">
@@ -3775,7 +4524,10 @@
       <c r="C233" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D233" s="8"/>
+      <c r="D233" t="str">
+        <f t="shared" si="3"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E233" s="8"/>
     </row>
     <row r="234" spans="1:5">
@@ -3788,7 +4540,10 @@
       <c r="C234" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D234" s="8"/>
+      <c r="D234" t="str">
+        <f t="shared" si="3"/>
+        <v>0500-01-01</v>
+      </c>
       <c r="E234" s="8"/>
     </row>
     <row r="235" spans="1:5">
@@ -3801,7 +4556,10 @@
       <c r="C235" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D235" s="8"/>
+      <c r="D235" t="str">
+        <f t="shared" si="3"/>
+        <v>0475-01-01</v>
+      </c>
       <c r="E235" s="8"/>
     </row>
     <row r="236" spans="1:5">
@@ -3814,7 +4572,10 @@
       <c r="C236" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D236" s="8"/>
+      <c r="D236" t="str">
+        <f t="shared" si="3"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="E236" s="8"/>
     </row>
     <row r="237" spans="1:5">
@@ -3827,7 +4588,10 @@
       <c r="C237" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D237" s="8"/>
+      <c r="D237" t="str">
+        <f t="shared" si="3"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E237" s="8"/>
     </row>
     <row r="238" spans="1:5">
@@ -3840,7 +4604,10 @@
       <c r="C238" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D238" s="8"/>
+      <c r="D238" t="str">
+        <f t="shared" si="3"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E238" s="8"/>
     </row>
     <row r="239" spans="1:5">
@@ -3853,7 +4620,10 @@
       <c r="C239" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D239" s="8"/>
+      <c r="D239" t="str">
+        <f t="shared" si="3"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E239" s="8"/>
     </row>
     <row r="240" spans="1:5">
@@ -3866,7 +4636,10 @@
       <c r="C240" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D240" s="8"/>
+      <c r="D240" t="str">
+        <f t="shared" si="3"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E240" s="8"/>
     </row>
     <row r="241" spans="1:5">
@@ -3879,7 +4652,10 @@
       <c r="C241" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D241" s="8"/>
+      <c r="D241" t="str">
+        <f t="shared" si="3"/>
+        <v>0375-01-01</v>
+      </c>
       <c r="E241" s="8"/>
     </row>
     <row r="242" spans="1:5">
@@ -3892,7 +4668,10 @@
       <c r="C242" s="14">
         <v>450</v>
       </c>
-      <c r="D242" s="8"/>
+      <c r="D242" t="str">
+        <f t="shared" si="3"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="E242" s="8"/>
     </row>
     <row r="243" spans="1:5">
@@ -3905,7 +4684,10 @@
       <c r="C243" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D243" s="8"/>
+      <c r="D243" t="str">
+        <f t="shared" si="3"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="E243" s="8"/>
     </row>
     <row r="244" spans="1:5">
@@ -3918,7 +4700,10 @@
       <c r="C244" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D244" s="8"/>
+      <c r="D244" t="str">
+        <f t="shared" si="3"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E244" s="8"/>
     </row>
     <row r="245" spans="1:5">
@@ -3931,7 +4716,10 @@
       <c r="C245" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D245" s="8"/>
+      <c r="D245" t="str">
+        <f t="shared" si="3"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E245" s="8"/>
     </row>
     <row r="246" spans="1:5">
@@ -3944,7 +4732,10 @@
       <c r="C246" s="15">
         <v>425</v>
       </c>
-      <c r="D246" s="8"/>
+      <c r="D246" t="str">
+        <f t="shared" si="3"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E246" s="8"/>
     </row>
     <row r="247" spans="1:5">
@@ -3957,7 +4748,10 @@
       <c r="C247" s="15">
         <v>400</v>
       </c>
-      <c r="D247" s="8"/>
+      <c r="D247" t="str">
+        <f t="shared" si="3"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E247" s="8"/>
     </row>
     <row r="248" spans="1:5">
@@ -3970,7 +4764,10 @@
       <c r="C248" s="15">
         <v>375</v>
       </c>
-      <c r="D248" s="8"/>
+      <c r="D248" t="str">
+        <f t="shared" si="3"/>
+        <v>0375-01-01</v>
+      </c>
       <c r="E248" s="8"/>
     </row>
     <row r="249" spans="1:5">
@@ -3983,7 +4780,10 @@
       <c r="C249" s="15">
         <v>425</v>
       </c>
-      <c r="D249" s="8"/>
+      <c r="D249" t="str">
+        <f t="shared" si="3"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E249" s="8"/>
     </row>
     <row r="250" spans="1:5">
@@ -3996,7 +4796,10 @@
       <c r="C250" s="15">
         <v>400</v>
       </c>
-      <c r="D250" s="8"/>
+      <c r="D250" t="str">
+        <f t="shared" si="3"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E250" s="8"/>
     </row>
     <row r="251" spans="1:5">
@@ -4009,7 +4812,10 @@
       <c r="C251" s="15">
         <v>375</v>
       </c>
-      <c r="D251" s="8"/>
+      <c r="D251" t="str">
+        <f t="shared" si="3"/>
+        <v>0375-01-01</v>
+      </c>
       <c r="E251" s="8"/>
     </row>
     <row r="252" spans="1:5">
@@ -4022,7 +4828,10 @@
       <c r="C252" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D252" s="8"/>
+      <c r="D252" t="str">
+        <f t="shared" si="3"/>
+        <v>0500-01-01</v>
+      </c>
       <c r="E252" s="8"/>
     </row>
     <row r="253" spans="1:5">
@@ -4035,7 +4844,10 @@
       <c r="C253" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D253" s="8"/>
+      <c r="D253" t="str">
+        <f t="shared" si="3"/>
+        <v>0475-01-01</v>
+      </c>
       <c r="E253" s="8"/>
     </row>
     <row r="254" spans="1:5">
@@ -4048,7 +4860,10 @@
       <c r="C254" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D254" s="8"/>
+      <c r="D254" t="str">
+        <f t="shared" si="3"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="E254" s="8"/>
     </row>
     <row r="255" spans="1:5">
@@ -4061,7 +4876,10 @@
       <c r="C255" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D255" s="8"/>
+      <c r="D255" t="str">
+        <f t="shared" si="3"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E255" s="8"/>
     </row>
     <row r="256" spans="1:5">
@@ -4074,7 +4892,10 @@
       <c r="C256" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D256" s="8"/>
+      <c r="D256" t="str">
+        <f t="shared" si="3"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E256" s="8"/>
     </row>
     <row r="257" spans="1:5">
@@ -4087,7 +4908,10 @@
       <c r="C257" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D257" s="8"/>
+      <c r="D257" t="str">
+        <f t="shared" si="3"/>
+        <v>0375-01-01</v>
+      </c>
       <c r="E257" s="8"/>
     </row>
     <row r="258" spans="1:5">
@@ -4100,7 +4924,10 @@
       <c r="C258" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D258" s="8"/>
+      <c r="D258" t="str">
+        <f t="shared" si="3"/>
+        <v>0350-01-01</v>
+      </c>
       <c r="E258" s="8"/>
     </row>
     <row r="259" spans="1:5">
@@ -4113,7 +4940,10 @@
       <c r="C259" s="14">
         <v>450</v>
       </c>
-      <c r="D259" s="8"/>
+      <c r="D259" t="str">
+        <f t="shared" ref="D259:D286" si="4">CONCATENATE("0",C259,"-01-01")</f>
+        <v>0450-01-01</v>
+      </c>
       <c r="E259" s="8"/>
     </row>
     <row r="260" spans="1:5">
@@ -4126,7 +4956,10 @@
       <c r="C260" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D260" s="8"/>
+      <c r="D260" t="str">
+        <f t="shared" si="4"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E260" s="8"/>
     </row>
     <row r="261" spans="1:5">
@@ -4139,7 +4972,10 @@
       <c r="C261" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D261" s="8"/>
+      <c r="D261" t="str">
+        <f t="shared" si="4"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E261" s="8"/>
     </row>
     <row r="262" spans="1:5">
@@ -4152,7 +4988,10 @@
       <c r="C262" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D262" s="8"/>
+      <c r="D262" t="str">
+        <f t="shared" si="4"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E262" s="8"/>
     </row>
     <row r="263" spans="1:5">
@@ -4165,7 +5004,10 @@
       <c r="C263" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D263" s="8"/>
+      <c r="D263" t="str">
+        <f t="shared" si="4"/>
+        <v>0375-01-01</v>
+      </c>
       <c r="E263" s="8"/>
     </row>
     <row r="264" spans="1:5">
@@ -4178,7 +5020,10 @@
       <c r="C264" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D264" s="8"/>
+      <c r="D264" t="str">
+        <f t="shared" si="4"/>
+        <v>0350-01-01</v>
+      </c>
       <c r="E264" s="8"/>
     </row>
     <row r="265" spans="1:5">
@@ -4191,7 +5036,10 @@
       <c r="C265" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D265" s="8"/>
+      <c r="D265" t="str">
+        <f t="shared" si="4"/>
+        <v>0500-01-01</v>
+      </c>
       <c r="E265" s="8"/>
     </row>
     <row r="266" spans="1:5">
@@ -4204,7 +5052,10 @@
       <c r="C266" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D266" s="8"/>
+      <c r="D266" t="str">
+        <f t="shared" si="4"/>
+        <v>0475-01-01</v>
+      </c>
       <c r="E266" s="8"/>
     </row>
     <row r="267" spans="1:5">
@@ -4217,7 +5068,10 @@
       <c r="C267" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D267" s="8"/>
+      <c r="D267" t="str">
+        <f t="shared" si="4"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="E267" s="8"/>
     </row>
     <row r="268" spans="1:5">
@@ -4230,7 +5084,10 @@
       <c r="C268" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D268" s="8"/>
+      <c r="D268" t="str">
+        <f t="shared" si="4"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E268" s="8"/>
     </row>
     <row r="269" spans="1:5">
@@ -4243,7 +5100,10 @@
       <c r="C269" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D269" s="8"/>
+      <c r="D269" t="str">
+        <f t="shared" si="4"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E269" s="8"/>
     </row>
     <row r="270" spans="1:5">
@@ -4256,7 +5116,10 @@
       <c r="C270" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D270" s="8"/>
+      <c r="D270" t="str">
+        <f t="shared" si="4"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="E270" s="8"/>
     </row>
     <row r="271" spans="1:5">
@@ -4269,7 +5132,10 @@
       <c r="C271" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D271" s="8"/>
+      <c r="D271" t="str">
+        <f t="shared" si="4"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E271" s="8"/>
     </row>
     <row r="272" spans="1:5">
@@ -4282,7 +5148,10 @@
       <c r="C272" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D272" s="8"/>
+      <c r="D272" t="str">
+        <f t="shared" si="4"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E272" s="8"/>
     </row>
     <row r="273" spans="1:5">
@@ -4295,7 +5164,10 @@
       <c r="C273" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D273" s="8"/>
+      <c r="D273" t="str">
+        <f t="shared" si="4"/>
+        <v>0500-01-01</v>
+      </c>
       <c r="E273" s="8"/>
     </row>
     <row r="274" spans="1:5">
@@ -4308,7 +5180,10 @@
       <c r="C274" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D274" s="8"/>
+      <c r="D274" t="str">
+        <f t="shared" si="4"/>
+        <v>0475-01-01</v>
+      </c>
       <c r="E274" s="8"/>
     </row>
     <row r="275" spans="1:5">
@@ -4321,7 +5196,10 @@
       <c r="C275" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D275" s="8"/>
+      <c r="D275" t="str">
+        <f t="shared" si="4"/>
+        <v>0450-01-01</v>
+      </c>
       <c r="E275" s="8"/>
     </row>
     <row r="276" spans="1:5">
@@ -4334,7 +5212,10 @@
       <c r="C276" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D276" s="8"/>
+      <c r="D276" t="str">
+        <f t="shared" si="4"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E276" s="8"/>
     </row>
     <row r="277" spans="1:5">
@@ -4347,7 +5228,10 @@
       <c r="C277" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D277" s="8"/>
+      <c r="D277" t="str">
+        <f t="shared" si="4"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E277" s="8"/>
     </row>
     <row r="278" spans="1:5">
@@ -4360,7 +5244,10 @@
       <c r="C278" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D278" s="8"/>
+      <c r="D278" t="str">
+        <f t="shared" si="4"/>
+        <v>0425-01-01</v>
+      </c>
       <c r="E278" s="8"/>
     </row>
     <row r="279" spans="1:5">
@@ -4373,7 +5260,10 @@
       <c r="C279" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D279" s="8"/>
+      <c r="D279" t="str">
+        <f t="shared" si="4"/>
+        <v>0400-01-01</v>
+      </c>
       <c r="E279" s="8"/>
     </row>
     <row r="280" spans="1:5">
@@ -4386,7 +5276,10 @@
       <c r="C280" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D280" s="8"/>
+      <c r="D280" t="str">
+        <f t="shared" si="4"/>
+        <v>0375-01-01</v>
+      </c>
       <c r="E280" s="8"/>
     </row>
     <row r="281" spans="1:5">
@@ -4399,7 +5292,10 @@
       <c r="C281" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D281" s="8"/>
+      <c r="D281" t="str">
+        <f t="shared" si="4"/>
+        <v>0350-01-01</v>
+      </c>
       <c r="E281" s="8"/>
     </row>
     <row r="282" spans="1:5">
@@ -4412,7 +5308,10 @@
       <c r="C282" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D282" s="8"/>
+      <c r="D282" t="str">
+        <f t="shared" si="4"/>
+        <v>0500-01-01</v>
+      </c>
       <c r="E282" s="8"/>
     </row>
     <row r="283" spans="1:5">
@@ -4425,6 +5324,10 @@
       <c r="C283" s="13" t="s">
         <v>45</v>
       </c>
+      <c r="D283" t="str">
+        <f t="shared" si="4"/>
+        <v>0475-01-01</v>
+      </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="8" t="s">
@@ -4436,6 +5339,10 @@
       <c r="C284" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="D284" t="str">
+        <f t="shared" si="4"/>
+        <v>0450-01-01</v>
+      </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="8" t="s">
@@ -4447,6 +5354,10 @@
       <c r="C285" s="13" t="s">
         <v>47</v>
       </c>
+      <c r="D285" t="str">
+        <f t="shared" si="4"/>
+        <v>0425-01-01</v>
+      </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="8" t="s">
@@ -4457,6 +5368,10 @@
       </c>
       <c r="C286" s="13" t="s">
         <v>49</v>
+      </c>
+      <c r="D286" t="str">
+        <f t="shared" si="4"/>
+        <v>0400-01-01</v>
       </c>
     </row>
     <row r="287" spans="1:5">
